--- a/Data/student/Fatima.xlsx
+++ b/Data/student/Fatima.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zain4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batool\sen project\SeniorProject\Data\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0957816-165B-483F-81CC-13803863AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBF37D-A471-4CF6-B646-B1277A150FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>student_id</t>
   </si>
@@ -332,6 +345,21 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>First 2024-2025</t>
+  </si>
+  <si>
+    <t>ITNE402</t>
+  </si>
+  <si>
+    <t>Senior Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITNE481 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISLM101 </t>
   </si>
 </sst>
 </file>
@@ -702,27 +730,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="78" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="18.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>202004477</v>
       </c>
@@ -777,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>202004477</v>
       </c>
@@ -803,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>202004477</v>
       </c>
@@ -829,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>202004477</v>
       </c>
@@ -855,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>202004477</v>
       </c>
@@ -881,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>202004477</v>
       </c>
@@ -907,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>202004477</v>
       </c>
@@ -933,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>202004477</v>
       </c>
@@ -959,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>202004477</v>
       </c>
@@ -985,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>202004477</v>
       </c>
@@ -1011,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>202004477</v>
       </c>
@@ -1037,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>202004477</v>
       </c>
@@ -1063,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>202004477</v>
       </c>
@@ -1089,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>202004477</v>
       </c>
@@ -1115,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>202004477</v>
       </c>
@@ -1141,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>202004477</v>
       </c>
@@ -1167,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>202004477</v>
       </c>
@@ -1193,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>202004477</v>
       </c>
@@ -1222,7 +1250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>202004477</v>
       </c>
@@ -1248,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>202004477</v>
       </c>
@@ -1274,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>202004477</v>
       </c>
@@ -1303,7 +1331,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>202004477</v>
       </c>
@@ -1329,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>202004477</v>
       </c>
@@ -1355,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>202004477</v>
       </c>
@@ -1381,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>202004477</v>
       </c>
@@ -1407,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>202004477</v>
       </c>
@@ -1433,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>202004477</v>
       </c>
@@ -1459,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>202004477</v>
       </c>
@@ -1485,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>202004477</v>
       </c>
@@ -1511,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>202004477</v>
       </c>
@@ -1537,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>202004477</v>
       </c>
@@ -1563,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>202004477</v>
       </c>
@@ -1589,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>202004477</v>
       </c>
@@ -1615,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>202004477</v>
       </c>
@@ -1641,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>202004477</v>
       </c>
@@ -1667,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>202004477</v>
       </c>
@@ -1693,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>202004477</v>
       </c>
@@ -1719,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>202004477</v>
       </c>
@@ -1745,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>202004477</v>
       </c>
@@ -1771,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>202004477</v>
       </c>
@@ -1795,6 +1823,86 @@
       </c>
       <c r="H41" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>202004477</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>202004477</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>202004477</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>202004477</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/student/Fatima.xlsx
+++ b/Data/student/Fatima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batool\sen project\SeniorProject\Data\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBF37D-A471-4CF6-B646-B1277A150FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4184E805-8C2D-446C-A47A-0C3EC61C5C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>student_id</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">ISLM101 </t>
+  </si>
+  <si>
+    <t>section</t>
   </si>
 </sst>
 </file>
@@ -418,12 +421,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -730,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="78" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,7 +756,7 @@
     <col min="10" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +784,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>202004477</v>
       </c>
@@ -805,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>202004477</v>
       </c>
@@ -831,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>202004477</v>
       </c>
@@ -857,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>202004477</v>
       </c>
@@ -883,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>202004477</v>
       </c>
@@ -909,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>202004477</v>
       </c>
@@ -935,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>202004477</v>
       </c>
@@ -961,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>202004477</v>
       </c>
@@ -987,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>202004477</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>202004477</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>202004477</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>202004477</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>202004477</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>202004477</v>
       </c>
@@ -1143,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>202004477</v>
       </c>
@@ -1591,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>202004477</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>202004477</v>
       </c>
@@ -1643,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>202004477</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>202004477</v>
       </c>
@@ -1695,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>202004477</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>202004477</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>202004477</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>202004477</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>202004477</v>
       </c>
@@ -1825,15 +1834,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>202004477</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>104</v>
@@ -1844,8 +1853,11 @@
       <c r="G42" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J42" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>202004477</v>
       </c>
@@ -1864,8 +1876,11 @@
       <c r="G43" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>202004477</v>
       </c>
@@ -1884,8 +1899,11 @@
       <c r="G44" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>202004477</v>
       </c>
@@ -1903,6 +1921,9 @@
       </c>
       <c r="G45" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
